--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.2526</v>
+        <v>12.2762</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.412599999999992</v>
+        <v>-7.249599999999997</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.78649999999999</v>
+        <v>12.61159999999999</v>
       </c>
     </row>
     <row r="6">
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.082100000000002</v>
+        <v>-8.088300000000002</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -709,10 +709,10 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.294899999999995</v>
+        <v>-8.195299999999996</v>
       </c>
       <c r="E16" t="n">
-        <v>12.91760000000001</v>
+        <v>12.97230000000001</v>
       </c>
     </row>
     <row r="17">
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.838499999999998</v>
+        <v>-7.524999999999995</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -828,7 +828,7 @@
         <v>-10.59</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.530299999999994</v>
+        <v>-7.549099999999997</v>
       </c>
       <c r="E23" t="n">
         <v>10.67</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.379000000000001</v>
+        <v>-8.117999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
